--- a/PDE3802_Year2526_Students.xlsx
+++ b/PDE3802_Year2526_Students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgiri\Dropbox\Middlesex University\PDE3802_2526\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4652C54-15BF-4C05-B4D6-09CC57DDF887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63685AF3-3A94-45FB-B399-517DA0732A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -643,7 +643,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -727,7 +727,9 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -758,7 +760,9 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -789,7 +793,9 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -882,7 +888,9 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -913,7 +921,9 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -944,7 +954,9 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -973,7 +985,9 @@
         <v>9</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1004,7 +1018,9 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1035,7 +1051,9 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1066,7 +1084,9 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1097,7 +1117,9 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1128,7 +1150,9 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1159,7 +1183,9 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
